--- a/TDD/Bilder/sort_factor.xlsx
+++ b/TDD/Bilder/sort_factor.xlsx
@@ -11,11 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>sort_factor</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,7 +77,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:style val="27"/>
+  <c:style val="3"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -76,8 +90,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>sort factor / runtime</a:t>
+              <a:t>sort</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> factor / runtime</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -89,21 +108,20 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12332174103237104"/>
-          <c:y val="0.19480351414406533"/>
-          <c:w val="0.70415179352580981"/>
-          <c:h val="0.65482210557013742"/>
+          <c:x val="0.10612729658792652"/>
+          <c:y val="0.19461714084681958"/>
+          <c:w val="0.68519203849518828"/>
+          <c:h val="0.6542039975570203"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]sort_factor!$B$1</c:f>
+              <c:f>Sheet1!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -114,7 +132,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sort_factor!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$C$8:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -138,7 +156,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]sort_factor!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$D$8:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -166,7 +184,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]sort_factor!$C$1</c:f>
+              <c:f>Sheet1!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -177,7 +195,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sort_factor!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$C$8:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -201,7 +219,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]sort_factor!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$E$8:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -229,7 +247,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]sort_factor!$D$1</c:f>
+              <c:f>Sheet1!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -240,7 +258,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sort_factor!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$C$8:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -264,7 +282,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]sort_factor!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$F$8:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -287,12 +305,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:overlap val="100"/>
-        <c:axId val="116631424"/>
-        <c:axId val="116982144"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:axId val="151697280"/>
+        <c:axId val="152113536"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="116631424"/>
+        <c:axId val="151697280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -317,21 +335,21 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.84300174978127729"/>
-              <c:y val="0.83238407699037653"/>
+              <c:x val="0.80699409448818915"/>
+              <c:y val="0.86029564134958281"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116982144"/>
+        <c:crossAx val="152113536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116982144"/>
+        <c:axId val="152113536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +366,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>runtime in ms</a:t>
+                  <a:t>runtime in s</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -357,14 +375,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.38888888888889E-2"/>
-              <c:y val="7.4980679498396083E-2"/>
+              <c:x val="8.333333333333335E-3"/>
+              <c:y val="8.6475950597033252E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116631424"/>
+        <c:crossAx val="151697280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -377,7 +395,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -387,20 +405,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472965</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>183931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>157655</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72258</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -416,101 +434,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="sort_factor"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>upload</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>map</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>job</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2</v>
-          </cell>
-          <cell r="B2">
-            <v>243.995</v>
-          </cell>
-          <cell r="C2">
-            <v>490.10700000000003</v>
-          </cell>
-          <cell r="D2">
-            <v>521.51800000000003</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>4</v>
-          </cell>
-          <cell r="B3">
-            <v>244.55199999999999</v>
-          </cell>
-          <cell r="C3">
-            <v>490.87400000000002</v>
-          </cell>
-          <cell r="D3">
-            <v>520.53899999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>6</v>
-          </cell>
-          <cell r="B4">
-            <v>243.72499999999999</v>
-          </cell>
-          <cell r="C4">
-            <v>489.46899999999999</v>
-          </cell>
-          <cell r="D4">
-            <v>584.02499999999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>8</v>
-          </cell>
-          <cell r="B5">
-            <v>243.85</v>
-          </cell>
-          <cell r="C5">
-            <v>494.74400000000003</v>
-          </cell>
-          <cell r="D5">
-            <v>589.94500000000005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>10</v>
-          </cell>
-          <cell r="B6">
-            <v>244.626</v>
-          </cell>
-          <cell r="C6">
-            <v>490.13</v>
-          </cell>
-          <cell r="D6">
-            <v>584.69899999999996</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -798,14 +721,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C7:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="3:6">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>243.995</v>
+      </c>
+      <c r="E8">
+        <v>490.10700000000003</v>
+      </c>
+      <c r="F8">
+        <v>521.51800000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>244.55199999999999</v>
+      </c>
+      <c r="E9">
+        <v>490.87400000000002</v>
+      </c>
+      <c r="F9">
+        <v>520.53899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>243.72499999999999</v>
+      </c>
+      <c r="E10">
+        <v>489.46899999999999</v>
+      </c>
+      <c r="F10">
+        <v>584.02499999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>243.85</v>
+      </c>
+      <c r="E11">
+        <v>494.74400000000003</v>
+      </c>
+      <c r="F11">
+        <v>589.94500000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>244.626</v>
+      </c>
+      <c r="E12">
+        <v>490.13</v>
+      </c>
+      <c r="F12">
+        <v>584.69899999999996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
